--- a/qby/src/static/market/c_yuan_low.xlsx
+++ b/qby/src/static/market/c_yuan_low.xlsx
@@ -4,12 +4,12 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowHeight="17520"/>
+    <workbookView windowWidth="28000" windowHeight="11640"/>
   </bookViews>
   <sheets>
     <sheet name="C端-专区满元减" sheetId="4" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="144525"/>
+  <calcPr calcId="144525" concurrentCalc="0"/>
 </workbook>
 </file>
 
@@ -1040,7 +1040,7 @@
   <dimension ref="A1:Z201"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A1" sqref="A1:B1"/>
+      <selection activeCell="A1" sqref="A1:B2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.80357142857143" defaultRowHeight="17.6"/>
